--- a/reports/takeoff915.xlsx
+++ b/reports/takeoff915.xlsx
@@ -568,7 +568,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>under_15</a:t>
+                  <a:t>under_10</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1004,7 +1004,7 @@
       <c r="G1" t="inlineStr"/>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>under_15</t>
+          <t>under_10</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>35</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>36</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
